--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/15/seed3/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.1873</v>
+        <v>-11.9692</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.927299999999997</v>
+        <v>4.793099999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.33850000000001</v>
+        <v>-22.39200000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.85080000000001</v>
+        <v>-21.96250000000001</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.8267</v>
+        <v>-7.940399999999999</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.49930000000002</v>
+        <v>-21.53380000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.215999999999995</v>
+        <v>-7.231400000000001</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-9.173799999999993</v>
+        <v>-8.96409999999999</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.870900000000002</v>
+        <v>-7.907099999999997</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.977399999999993</v>
+        <v>5.187199999999994</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.88329999999998</v>
+        <v>-21.80099999999998</v>
       </c>
       <c r="B18" t="n">
-        <v>6.264200000000001</v>
+        <v>6.195799999999998</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.149</v>
+        <v>-11.9167</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.52190000000001</v>
+        <v>-11.5915</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.861300000000002</v>
+        <v>8.869100000000007</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.4007</v>
+        <v>-13.36489999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,13 +924,13 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.927300000000002</v>
+        <v>5.0267</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.474299999999999</v>
+        <v>-7.449799999999995</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.307399999999999</v>
+        <v>5.4946</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.616700000000001</v>
+        <v>4.8776</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.4865</v>
+        <v>-13.65409999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.931299999999998</v>
+        <v>-9.017499999999998</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.886600000000002</v>
+        <v>-7.750799999999999</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.6998</v>
+        <v>-19.22859999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.88579999999999</v>
+        <v>-13.0476</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.500499999999988</v>
+        <v>9.514499999999995</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.26780000000001</v>
+        <v>-12.0799</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.852300000000002</v>
+        <v>-8.154300000000005</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.59509999999999</v>
+        <v>-13.22349999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.6408</v>
+        <v>-12.4627</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.318599999999996</v>
+        <v>-7.484199999999995</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1270,7 +1270,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.9064</v>
+        <v>-8.248800000000001</v>
       </c>
       <c r="E49" t="n">
         <v>16.49</v>
@@ -1281,13 +1281,13 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>5.0361</v>
+        <v>5.211799999999998</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.191599999999994</v>
+        <v>-8.191699999999992</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2545</v>
+        <v>-22.5139</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.260499999999997</v>
+        <v>-8.219599999999996</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.3466</v>
+        <v>-12.5623</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.3402</v>
+        <v>-12.4561</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.49340000000001</v>
+        <v>-21.48140000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>4.5889</v>
+        <v>4.432600000000001</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.168599999999993</v>
+        <v>-7.242099999999994</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.4019</v>
+        <v>-12.5185</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.228300000000001</v>
+        <v>6.207899999999998</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.06949999999999</v>
+        <v>-20.20769999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.95809999999998</v>
+        <v>-20.00119999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.91410000000001</v>
+        <v>-21.875</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.773599999999998</v>
+        <v>-7.704099999999998</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.8922</v>
+        <v>-21.9257</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.112599999999994</v>
+        <v>4.860999999999995</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.527099999999995</v>
+        <v>4.509499999999998</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.1002</v>
+        <v>-12.9296</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.155099999999999</v>
+        <v>-6.254199999999997</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.214</v>
+        <v>-10.0879</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.22149999999999</v>
+        <v>-12.0734</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.288200000000005</v>
+        <v>5.370300000000007</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>6.117799999999999</v>
+        <v>6.079400000000001</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,10 +2148,10 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>9.60739999999999</v>
+        <v>9.534599999999996</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.6437</v>
+        <v>-12.68910000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.358400000000007</v>
+        <v>8.554100000000004</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
